--- a/stack_performance.xlsx
+++ b/stack_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonycui/Documents/McGill/Semester 7/COMP 409/A3/Lock-free-Stack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A049957D-66C5-844B-BFF1-93CD34968558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67678082-9F28-734F-BF5C-ADBE949E6441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19400" yWindow="11920" windowWidth="13300" windowHeight="9660" xr2:uid="{7144C0E6-69BA-D64A-9EA4-93EFC50E4C43}"/>
+    <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{7144C0E6-69BA-D64A-9EA4-93EFC50E4C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +59,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,7 +414,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>6747</v>
+        <v>6661</v>
       </c>
       <c r="H7">
         <v>6640</v>
@@ -574,12 +589,6 @@
       </c>
       <c r="F8">
         <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6661</v>
-      </c>
-      <c r="I8">
-        <v>6936</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -619,7 +628,7 @@
         <f>AVERAGE(B3:B12)</f>
         <v>6718.4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" ref="C13:D13" si="0">AVERAGE(C3:C12)</f>
         <v>6674</v>
       </c>
@@ -627,9 +636,9 @@
         <f t="shared" si="0"/>
         <v>6683.8</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>AVERAGE(G3:G12)</f>
-        <v>6676.5</v>
+        <v>6662.4</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13" si="1">AVERAGE(H3:H12)</f>
@@ -637,7 +646,7 @@
       </c>
       <c r="I13">
         <f t="shared" ref="I13" si="2">AVERAGE(I3:I12)</f>
-        <v>6775.666666666667</v>
+        <v>6743.6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -712,7 +721,7 @@
         <v>6733</v>
       </c>
       <c r="D20">
-        <v>6639</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,19 +735,13 @@
         <v>6823</v>
       </c>
       <c r="D21">
-        <v>6784</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>6928</v>
-      </c>
-      <c r="D22">
-        <v>6796</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -761,17 +764,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27">
+      <c r="B27" s="1">
         <f>AVERAGE(B17:B26)</f>
         <v>6606.8</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="3">AVERAGE(C17:C26)</f>
-        <v>6801.666666666667</v>
+        <v>6776.4</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>6763</v>
+        <v>6787.8</v>
       </c>
     </row>
   </sheetData>

--- a/stack_performance.xlsx
+++ b/stack_performance.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonycui/Documents/McGill/Semester 7/COMP 409/A3/Lock-free-Stack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67678082-9F28-734F-BF5C-ADBE949E6441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D697D-1AF1-E84F-BAE6-00A691887197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{7144C0E6-69BA-D64A-9EA4-93EFC50E4C43}"/>
+    <workbookView xWindow="-38380" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{7144C0E6-69BA-D64A-9EA4-93EFC50E4C43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,18 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Trial</t>
   </si>
   <si>
-    <t>NumThreads, e=1, d=10, n=1200, t=2</t>
+    <t>n=50000</t>
   </si>
   <si>
-    <t>NumThreads, e=2, d=10, n=1200, t=2</t>
+    <t>t</t>
   </si>
   <si>
-    <t>NumThreads, e=4, d=10, n=1200, t=2</t>
+    <t>n=100000</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>p (number of threads)</t>
   </si>
 </sst>
 </file>
@@ -112,6 +122,1354 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bracket</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Matching Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333333332E-3"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9444444444444445E-2"/>
+                  <c:y val="4.1666666666666664E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.388888888888894E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111212E-2"/>
+                  <c:y val="3.2407407407407364E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333334356E-3"/>
+                  <c:y val="4.1666666666666664E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q1'!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q1'!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1110807487361662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1305435840400391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2237772761474794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2758079698776279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3315867037825446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FA3-4D47-ACF0-DF371EA4E8B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121404287"/>
+        <c:axId val="29934832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121404287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29934832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="29934832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121404287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2C43CE-C30E-B24F-BB2C-453C17A6A443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4470400"/>
+          <a:ext cx="3314700" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83B64B4-C18B-2D49-B06D-3B6AF2F0676F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="4470400"/>
+          <a:ext cx="3314700" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16DADAF-4567-FF47-8C85-35B5452454C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="4470400"/>
+          <a:ext cx="3314700" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE67751B-BFE3-9247-A218-C8EA714AABCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,20 +1769,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B3526-716D-6348-81DC-12AD8D5A0609}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -584,200 +1942,606 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>6718.4</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C3:C7)</f>
+        <v>6674</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>6683.8</v>
+      </c>
+      <c r="G8" s="1">
+        <f>AVERAGE(G3:G7)</f>
+        <v>6662.4</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(H3:H7)</f>
+        <v>6720.2</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(I3:I7)</f>
+        <v>6743.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6561</v>
+      </c>
+      <c r="C12">
+        <v>6691</v>
+      </c>
+      <c r="D12">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>6600</v>
+      </c>
+      <c r="C13">
+        <v>6815</v>
+      </c>
+      <c r="D13">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>6662</v>
+      </c>
+      <c r="C14">
+        <v>6820</v>
+      </c>
+      <c r="D14">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6609</v>
+      </c>
+      <c r="C15">
+        <v>6733</v>
+      </c>
+      <c r="D15">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6602</v>
+      </c>
+      <c r="C16">
+        <v>6823</v>
+      </c>
+      <c r="D16">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <f>AVERAGE(B12:B16)</f>
+        <v>6606.8</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C12:C16)</f>
+        <v>6776.4</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D12:D16)</f>
+        <v>6787.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8567613C-BDE5-BD45-AB6A-2B899E8702D3}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <f>AVERAGE(B3:B12)</f>
-        <v>6718.4</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C3:C12)</f>
-        <v>6674</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>6683.8</v>
-      </c>
-      <c r="G13" s="1">
-        <f>AVERAGE(G3:G12)</f>
-        <v>6662.4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="1">AVERAGE(H3:H12)</f>
-        <v>6720.2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="2">AVERAGE(I3:I12)</f>
-        <v>6743.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>6561</v>
+        <v>803</v>
       </c>
       <c r="C17">
-        <v>6691</v>
+        <v>542</v>
       </c>
       <c r="D17">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+      <c r="E17">
+        <v>559</v>
+      </c>
+      <c r="F17">
+        <v>496</v>
+      </c>
+      <c r="G17">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>6600</v>
+        <v>826</v>
       </c>
       <c r="C18">
-        <v>6815</v>
+        <v>875</v>
       </c>
       <c r="D18">
-        <v>6825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="E18">
+        <v>815</v>
+      </c>
+      <c r="F18">
+        <v>484</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>6662</v>
+        <v>816</v>
       </c>
       <c r="C19">
-        <v>6820</v>
+        <v>709</v>
       </c>
       <c r="D19">
-        <v>6799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="E19">
+        <v>743</v>
+      </c>
+      <c r="F19">
+        <v>729</v>
+      </c>
+      <c r="G19">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>6609</v>
+        <v>739</v>
       </c>
       <c r="C20">
-        <v>6733</v>
+        <v>807</v>
       </c>
       <c r="D20">
-        <v>6784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+      <c r="E20">
+        <v>492</v>
+      </c>
+      <c r="F20">
+        <v>893</v>
+      </c>
+      <c r="G20">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>6602</v>
+        <v>776</v>
       </c>
       <c r="C21">
-        <v>6823</v>
+        <v>802</v>
       </c>
       <c r="D21">
-        <v>6796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>932</v>
+      </c>
+      <c r="E21">
+        <v>884</v>
+      </c>
+      <c r="F21">
+        <v>718</v>
+      </c>
+      <c r="G21">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>758</v>
+      </c>
+      <c r="C22">
+        <v>728</v>
+      </c>
+      <c r="D22">
+        <v>812</v>
+      </c>
+      <c r="E22">
+        <v>481</v>
+      </c>
+      <c r="F22">
+        <v>522</v>
+      </c>
+      <c r="G22">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>848</v>
+      </c>
+      <c r="C23">
+        <v>783</v>
+      </c>
+      <c r="D23">
+        <v>520</v>
+      </c>
+      <c r="E23">
+        <v>683</v>
+      </c>
+      <c r="F23">
+        <v>501</v>
+      </c>
+      <c r="G23">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>843</v>
+      </c>
+      <c r="C24">
+        <v>792</v>
+      </c>
+      <c r="D24">
+        <v>560</v>
+      </c>
+      <c r="E24">
+        <v>586</v>
+      </c>
+      <c r="F24">
+        <v>534</v>
+      </c>
+      <c r="G24">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>886</v>
+      </c>
+      <c r="C25">
+        <v>509</v>
+      </c>
+      <c r="D25">
+        <v>771</v>
+      </c>
+      <c r="E25">
+        <v>865</v>
+      </c>
+      <c r="F25">
+        <v>761</v>
+      </c>
+      <c r="G25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
+      <c r="B26">
+        <v>837</v>
+      </c>
+      <c r="C26">
+        <v>772</v>
+      </c>
+      <c r="D26">
+        <v>897</v>
+      </c>
+      <c r="E26">
+        <v>537</v>
+      </c>
+      <c r="F26">
+        <v>736</v>
+      </c>
+      <c r="G26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
         <f>AVERAGE(B17:B26)</f>
-        <v>6606.8</v>
+        <v>813.2</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="3">AVERAGE(C17:C26)</f>
-        <v>6776.4</v>
+        <f t="shared" ref="C27:G27" si="0">AVERAGE(C17:C26)</f>
+        <v>731.9</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>6787.8</v>
+        <f t="shared" si="0"/>
+        <v>719.3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>664.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>637.4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>610.70000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <f>B27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>B27/C27</f>
+        <v>1.1110807487361662</v>
+      </c>
+      <c r="D30">
+        <f>B27/D27</f>
+        <v>1.1305435840400391</v>
+      </c>
+      <c r="E30">
+        <f>B27/E27</f>
+        <v>1.2237772761474794</v>
+      </c>
+      <c r="F30">
+        <f>B27/F27</f>
+        <v>1.2758079698776279</v>
+      </c>
+      <c r="G30">
+        <f>B27/G27</f>
+        <v>1.3315867037825446</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>